--- a/data/st_notices/2023-05-13_ST股公告(截至).xlsx
+++ b/data/st_notices/2023-05-13_ST股公告(截至).xlsx
@@ -464,41 +464,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>股票名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>公告标题</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>公告日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>公告发布时间</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>公告附件</t>
         </is>
@@ -507,49 +507,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>*ST围海</t>
+          <t>ST同洲</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002586</t>
+          <t>002052</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>*ST围海:股票交易异常波动公告</t>
+          <t>ST同洲:关于投资者诉讼事项进展情况的公告</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621579_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 19:59:44:000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648184_1.pdf?1684180800000.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>*ST新海</t>
+          <t>*ST红相</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002089</t>
+          <t>300427</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>*ST新海:关于公司股票可能被实施重大违法强制退市的第十六次风险提示公告</t>
+          <t>*ST红相:关于董事辞职的公告</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -559,125 +559,125 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:49:000</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621659_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 19:17:40:000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586647161_1.pdf?1684178276000.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>*ST银河</t>
+          <t>*ST金一</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000806</t>
+          <t>002721</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>*ST银河:关于向深圳证券交易所提交听证申请的公告</t>
+          <t>*ST金一:关于股票交易异常波动的公告</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621585_1.pdf?1684082657000.pdf</t>
+          <t>2023-05-15 18:32:49:000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644832_1.pdf?1684175581000.pdf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>*ST银河</t>
+          <t>*ST金一</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000806</t>
+          <t>002721</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>*ST银河:联储证券有限责任公司关于北海银河生物产业投资股份有限公司详式权益变动报告书之2022年第四季度持续督导报告</t>
+          <t>*ST金一:关于持股5%以上股东解除质押及解除司法再冻结的公告</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-05-14 15:34:01:000</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621580_1.pdf?1684083181000.pdf</t>
+          <t>2023-05-15 18:32:49:000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644838_1.pdf?1684175581000.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ST金鸿</t>
+          <t>*ST金一</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000669</t>
+          <t>002721</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>深交所:ST金鸿_监管函</t>
+          <t>*ST金一:关于收到北京证监局警示函的公告</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-05-13 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-05-13 16:15:12:000</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305131586601868_1.pdf?1683994512000.pdf</t>
+          <t>2023-05-15 18:29:40:000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644774_1.pdf?1684175413000.pdf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>*ST紫鑫</t>
+          <t>ST天龙</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002118</t>
+          <t>300029</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>*ST紫鑫:关于股票交易异常波动公告</t>
+          <t>ST天龙:江苏华盛天龙光电设备股份有限公司审计报告(更新)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -687,29 +687,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621617_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 17:42:59:000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642784_1.pdf?1684174954000.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ST阳光城</t>
+          <t>ST天龙</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000671</t>
+          <t>300029</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ST阳光城:阳光城股票交易异常波动公告</t>
+          <t>ST天龙:江苏华盛天龙光电设备股份有限公司2022年年度股东大会之法律意见书</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -719,29 +719,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621606_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 17:40:58:000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642804_1.pdf?1684172490000.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ST鼎龙</t>
+          <t>ST天龙</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002502</t>
+          <t>300029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ST鼎龙:关于公司股票交易异常波动的公告</t>
+          <t>ST天龙:2022年年度股东大会决议公告</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -751,29 +751,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621583_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 17:40:54:000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642775_1.pdf?1684172462000.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>*ST 正邦</t>
+          <t>*ST越博</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002157</t>
+          <t>300742</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>*ST正邦:关于股票交易异常波动的公告</t>
+          <t>*ST越博:关于原控股股东、实际控制人以公司名义违规担保的公告</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -783,29 +783,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621621_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 18:41:59:000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645379_1.pdf?1684176119000.pdf</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>*ST美谷</t>
+          <t>*ST越博</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000615</t>
+          <t>300742</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>*ST美谷:股票交易异常波动的公告</t>
+          <t>*ST越博:关于累计诉讼情况的公告</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -815,189 +815,189 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621581_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 18:41:59:000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645376_1.pdf?1684176119000.pdf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ST实华</t>
+          <t>*ST慧辰</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000637</t>
+          <t>688500</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ST实华:关于股票交易异常波动的公告</t>
+          <t>*ST慧辰:独立董事关于第三届董事会第二十五次会议相关事项的独立意见</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621609_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 16:32:44:000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586639342_1.pdf?1684168385000.pdf</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ST工智</t>
+          <t>*ST慧辰</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000584</t>
+          <t>688500</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ST工智:股票交易异常波动公告</t>
+          <t>*ST慧辰:关于聘任公司副总经理的公告</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621584_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 16:32:57:000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586639341_1.pdf?1684168385000.pdf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ST恒久</t>
+          <t>ST沪科</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002808</t>
+          <t>600608</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ST恒久:股票交易异常波动公告</t>
+          <t>ST沪科:ST沪科2022年年度股东大会决议公告</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621615_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 18:52:44:000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645948_1.pdf?1684176777000.pdf</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ST华铁</t>
+          <t>ST沪科</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>600608</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ST华铁:关于股票交易异常波动的公告</t>
+          <t>ST沪科:北京大成(上海)律师事务所关于上海宽频科技股份有限公司2022年年度股东大会法律意见书</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:49:000</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621650_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 18:52:56:000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645949_1.pdf?1684177347000.pdf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>*ST中期</t>
+          <t>S*ST佳通</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000996</t>
+          <t>600182</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>*ST中期:股票交易异常波动公告</t>
+          <t>S*ST佳通:佳通轮胎股份有限公司关于公司股票撤销退市风险警示及其他风险警示暨停牌的公告</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621582_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 17:38:45:000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642707_1.pdf?1684172349000.pdf</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>*ST搜特</t>
+          <t>*ST三盛</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002503</t>
+          <t>300282</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>*ST搜特:可转换公司债券交易严重异常波动公告</t>
+          <t>300282:*ST三盛年报问询函</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1007,134 +1007,3313 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-05-14 15:34:01:000</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621663_1.pdf?1684078474000.pdf</t>
+          <t>2023-05-15 12:33:44:000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586633191_1.pdf?1684154046000.pdf</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>*ST搜特</t>
+          <t>ST通葡</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002503</t>
+          <t>600365</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>*ST搜特:股票交易异常波动公告</t>
+          <t>ST通葡:通化葡萄酒股份有限公司2022年年度股东大会资料</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621575_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 17:18:56:000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586641842_1.pdf?1684171140000.pdf</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>*ST新联</t>
+          <t>ST天圣</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000620</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>*ST新联:股票交易异常波动公告</t>
+          <t>ST天圣:关于公司股票交易被实行其他风险警示相关事项的进展公告</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-05-15 00:00:00</t>
+          <t>2023-05-16 00:00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-05-14 15:33:37:000</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621608_1.pdf?1684078441000.pdf</t>
+          <t>2023-05-15 20:32:04:000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586649077_1.pdf?1684183402000.pdf</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>*ST园城</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>600766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>*ST园城:烟台园城黄金股份有限公司关于终止筹划控制权变更事项暨股票复牌公告</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:16:04:000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586647133_1.pdf?1684178164000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>*ST文化</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>300089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>*ST文化:2022年度网上业绩说明会活动记录表</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:18:39:000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644083_1.pdf?1684178325000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>*ST文化</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>300089</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>*ST文化:关于公司向深圳证券交易所提交听证申请的公告</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:08:56:000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643950_1.pdf?1684175696000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>*ST奇信</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002781</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>*ST奇信:关于召开2022年度股东大会的提示性公告</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:02:27:000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646334_1.pdf?1684177351000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>*ST必康</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>*ST必康:关于延期召开2022年度股东大会的公告</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:52:04:000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645915_1.pdf?1684176756000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>*ST必康</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>*ST必康:关于召开2022年度股东大会的通知(延期后)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:52:04:000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645910_1.pdf?1684176756000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>*ST必康</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>*ST必康:第五届董事会第五十三次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:52:04:000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645920_1.pdf?1684176756000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>*ST必康</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>*ST必康:关于收到法院预重整决定书的公告</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:49:35:000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645834_1.pdf?1684177650000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ST中嘉</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000889</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ST中嘉:重大仲裁事项的进展公告</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-05-15 11:47:37:000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586632956_1.pdf?1684151282000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>*ST银河</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000806</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>*ST银河:关于向深圳证券交易所提交听证申请的公告</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621585_1.pdf?1684082657000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST银河</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>*ST银河:联储证券有限责任公司关于北海银河生物产业投资股份有限公司详式权益变动报告书之2022年第四季度持续督导报告</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:34:01:000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621580_1.pdf?1684083181000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ST金鸿</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000669</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ST金鸿:关于参加网上集体业绩说明会的公告</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:24:51:000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586639071_1.pdf?1684167923000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ST金鸿</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000669</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>深交所:ST金鸿_监管函</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-05-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-05-13 16:15:12:000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305131586601868_1.pdf?1683994512000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>*ST泛海</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000046</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>*ST泛海:关于强制执行事项的进展公告</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:39:39:000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586649350_1.pdf?1684183201000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ST安信:关于总经理任职资格获上海银保监局核准的公告</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:43:47:000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586640201_1.pdf?1684171454000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ST安信:关于控股股东部分股份质押公告</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:43:47:000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586640202_1.pdf?1684169043000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ST万林</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>603117</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ST万林:江苏万林现代物流股份有限公司关于控股股东增持计划的公告</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:49:39:000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643148_1.pdf?1684173003000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ST步森</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002569</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ST步森:关于公司资产转让事项进展暨过户完成的提示性公告</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:25:54:000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586640710_1.pdf?1684171623000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ST有棵树</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>300209</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ST有棵树:有棵树科技股份有限公司投资者关系活动记录表</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-05-15 15:53:35:000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586638056_1.pdf?1684166009000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ST金运</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>300220</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ST金运:关于召开2022年年度股东大会的提示性公告</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:51:56:000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643353_1.pdf?1684173120000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>*ST雪发</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>*ST雪发:第五届董事会第二十三次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:15:47:000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644110_1.pdf?1684174571000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>*ST雪发</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>*ST雪发:关于2022年度股东大会增加临时提案暨股东大会补充通知公告</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:15:47:000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644103_1.pdf?1684174571000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>*ST雪发</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>*ST雪发:独立董事关于公司第五届董事会第二十三次会议审议相关事项的独立意见</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:15:47:000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644102_1.pdf?1684174563000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>*ST全筑</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>603030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>*ST全筑:2022年年度股东大会会议资料</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:48:59:000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643116_1.pdf?1684172943000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>*ST全筑</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>603030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>*ST全筑:关于控股股东股份被冻结的公告</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:50:53:000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586640532_1.pdf?1684169461000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ST海越</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>600387</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ST海越:海越能源2022年年度股东大会会议文件</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:19:45:000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586641876_1.pdf?1684171205000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ST易购</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ST易购:关于召开2022年度业绩说明会的公告</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:45:52:000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642957_1.pdf?1684172789000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ST路通</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>300555</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ST路通:无锡路通视信网络股份有限公司关于举行2022年度网上业绩说明会的通知</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:10:53:000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586638714_1.pdf?1684167325000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>*ST方科</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>600601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>*ST方科:方正科技集团股份有限公司关于收到上海证券交易所对公司2022年年度报告的信息披露监管问询函的公告</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:19:38:000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644375_1.pdf?1684174802000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ST美置:关于公司股票存在可能因股价低于面值被终止上市的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:25:47:000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648851_1.pdf?1684182351000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ST美置:关于公司部分董事、高级管理人员增持公司股份计划实施进展公告</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:25:47:000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648850_1.pdf?1684182351000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>*ST华仪</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>600290</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>*ST华仪:*ST华仪关于涉及诉讼的公告</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:32:06:000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642520_1.pdf?1684171955000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ST实华</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000637</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ST实华:关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621609_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ST开元:关于延期回复深圳证券交易所年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:05:36:000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643863_1.pdf?1684173973000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>*ST围海</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002586</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>*ST围海:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621579_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>*ST 正邦</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>*ST正邦:关于与江西省供销冷链科技有限公司签署战略合作框架协议的公告</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:17:34:000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644303_1.pdf?1684174678000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>*ST 正邦</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>*ST正邦:关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621621_1.pdf?1684139846000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>*ST中天</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>000540</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>*ST中天:关于公司股票可能被终止上市的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:41:59:000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645384_1.pdf?1684176119000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>*ST中天</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000540</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>*ST中天:股票交易异常波动的公告</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>2023-05-15 00:00:00</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-05-14 15:33:49:000</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621668_1.pdf?1684078441000.pdf</t>
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>*ST爱迪</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002740</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>*ST爱迪:关于延期回复深圳证券交易所2022年年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:13:41:000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644058_1.pdf?1684174445000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ST南卫</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>603880</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ST南卫:南卫股份董事集中竞价减持股份进展公告</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:08:50:000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586638656_1.pdf?1684166938000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>*ST宋都</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>600077</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>*ST宋都:宋都基业投资股份有限公司(600077)关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:00:58:000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646254_1.pdf?1684177262000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>*ST宏图:控股股东及实际控制人关于股票交易异常波动的回复函</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:17:54:000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644297_1.pdf?1684175887000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>*ST宏图:关于公司股票可能被实施重大违法强制退市的第四次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:17:34:000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644284_1.pdf?1684174678000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>*ST宏图:关于公司股票可能被终止上市的第三次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:17:34:000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644285_1.pdf?1684174678000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>*ST宏图:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:17:34:000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644304_1.pdf?1684174678000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>*ST新联:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621608_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>*ST紫鑫:关于参加网上集体业绩说明会的公告</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:30:52:000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586639204_1.pdf?1684168506000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>002118:*ST紫鑫年报问询函</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:17:40:000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586647174_1.pdf?1684178276000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>*ST紫鑫:关于股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621617_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ST富润:浙江富润2022年年度股东大会会议资料</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:43:59:000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642913_1.pdf?1684172647000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ST富润:浙江富润2022年半年度报告(2023年修订版)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:43:59:000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642918_1.pdf?1684176005000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ST富润:浙江富润控股股东及实际控制人关于公司股票异常波动问询函的回函</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:39:41:000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642731_1.pdf?1684172410000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ST富润:浙江富润关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:39:41:000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642730_1.pdf?1684172410000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ST富润:浙江富润2021年年度报告(2023年修订版)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:44:27:000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642912_1.pdf?1684175985000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ST富润:浙江富润2020年年度报告(2023年修订版)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:44:27:000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642917_1.pdf?1684175973000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ST贵人</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>603555</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ST贵人:贵人鸟控股股东及实际控制人《关于贵人鸟股份有限公司股票交易异常波动问询函》的回函</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:10:02:000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646875_1.pdf?1684179099000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ST贵人</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>603555</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ST贵人:贵人鸟股份有限公司股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:09:41:000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646869_1.pdf?1684177802000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>300799:*ST左江年报问询函</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-05-15 12:33:44:000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586633189_1.pdf?1684154046000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ST华铁:关于资金占用事项的进展公告</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:53:04:000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645979_1.pdf?1684176809000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ST华铁:关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:49:000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621650_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>*ST中期</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>*ST中期:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621582_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>*ST柏龙</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>*ST柏龙:关于公司实际控制人被采取强制措施的公告</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:23:54:000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644194_1.pdf?1684175340000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>*ST柏龙</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>*ST柏龙:关于召开2022年度股东大会的提示性公告</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:23:38:000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644591_1.pdf?1684175038000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ST花王</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>603007</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ST花王:关于关联交易的进展公告</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:22:43:000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586642235_1.pdf?1684171380000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ST通脉</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>603559</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ST通脉:中通国脉通信股份有限公司关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:28:45:000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586647346_1.pdf?1684178945000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ST通脉</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>603559</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ST通脉:关于对中通国脉通信股份有限公司股票交易异常波动问询函的回复</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:28:45:000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586647347_1.pdf?1684178945000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ST宇顺</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ST宇顺:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:29:50:000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586647366_1.pdf?1684179006000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ST阳光城:关于实控人因龙净环保历史信披违规事项被立案的公告</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:52:04:000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586645924_1.pdf?1684176756000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ST阳光城:阳光城股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621606_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ST鹏博士</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>600804</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ST鹏博士:鹏博士关于变更2022年度业绩暨现金分红说明会召开时间的公告</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:54:38:000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643464_1.pdf?1684173310000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ST鹏博士</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>600804</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ST鹏博士:鹏博士关于召开2022年年度股东大会的通知</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:54:38:000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643465_1.pdf?1684173302000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ST鹏博士</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>600804</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>关于对鹏博士电信传媒集团股份有限公司及有关责任人予以监管警示的决定</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-05-15 17:28:35:000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586641686_1.pdf?1684171715000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>*ST日海:上海市锦天城(深圳)律师事务所关于公司2023年第二次临时股东大会的法律意见书</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:27:49:000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644738_1.pdf?1684175281000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>*ST日海:2023年第二次临时股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:27:49:000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586644737_1.pdf?1684175281000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>*ST新海</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002089</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>*ST新海:新海宜科技集团股份有限公司关于公司董事辞职的公告</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-05-15 16:30:52:000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586639206_1.pdf?1684168279000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>*ST新海</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002089</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>*ST新海:关于公司股票可能被实施重大违法强制退市的第十六次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:49:000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621659_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ST工智</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ST工智:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621584_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ST恒久</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ST恒久:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621615_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ST美讯</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>600898</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ST美讯:东吴证券股份有限公司关于国美通讯非公开发行股票之保荐总结报告书</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:55:38:000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646114_1.pdf?1684176958000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ST美讯</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>600898</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ST美讯:国美通讯设备股份有限公司关于累计涉及诉讼、仲裁的公告</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:54:40:000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646066_1.pdf?1684176897000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ST美讯</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>600898</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ST美讯:国美通讯设备股份有限公司关于公司股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:54:40:000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646065_1.pdf?1684176897000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ST美讯</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>600898</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ST美讯:山东龙脊岛建设有限公司关于国美通讯股票交易异常波动询证函的回复</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:54:56:000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586646061_1.pdf?1684178937000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>*ST庞大:2022年年度股东大会会议资料</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:59:44:000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648185_1.pdf?1684180800000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>*ST庞大:关于股价异常波动问询函控股股东回函</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:59:08:000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648170_1.pdf?1684180812000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>*ST庞大:关于股票可能被终止上市的第五次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:58:52:000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648168_1.pdf?1684180740000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>*ST庞大:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:58:37:000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648169_1.pdf?1684180740000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>*ST庞大:关于股价异常波动问询函实际控制人回函</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:59:08:000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648167_1.pdf?1684180856000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>*ST庞大:2023年一季度报告更正公告</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-05-15 19:58:37:000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648166_1.pdf?1684180752000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上交所:关于庞大汽贸集团股份有限公司信访投诉有关事项的监管工作函</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:23:38:000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648707_1.doc?1684182218000.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ST鼎龙</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002502</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ST鼎龙:关于公司股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621583_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>*ST美谷</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000615</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>*ST美谷:关于独立董事辞职的公告</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:39:47:000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586649356_1.pdf?1684183201000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>*ST美谷</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000615</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>*ST美谷:股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621581_1.pdf?1684078441000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>*ST新纺</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002087</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>*ST新纺:关于参加河南辖区上市公司2023年投资者网上集体接待日活动的公告</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:02:05:000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586648250_1.pdf?1684180945000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ST粤泰</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>600393</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ST粤泰:粤泰控股关于广州粤泰集团股份有限公司股票交易异常波动问询的回复</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:03:42:000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643790_1.pdf?1684173850000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ST粤泰</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>600393</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ST粤泰:广州粤泰集团股份有限公司股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-05-15 18:03:42:000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586643766_1.pdf?1684173850000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>*ST搜特:关于公司主要银行账户被冻结触发其他风险警示的公告</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:33:39:000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586649118_1.pdf?1684182835000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>*ST搜特:关于诉讼、仲裁事项的进展公告</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:33:39:000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586649109_1.pdf?1684182835000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>*ST搜特:关于公司股票及可转换公司债券存在被终止上市风险的提示公告</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-05-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-05-15 20:33:39:000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305151586649113_1.pdf?1684182835000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>*ST搜特:可转换公司债券交易严重异常波动公告</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:34:01:000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621663_1.pdf?1684137701000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>*ST搜特:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-05-14 15:33:37:000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305141586621575_1.pdf?1684139155000.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F20" r:id="rId19"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1144,7 +4323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,12 +4351,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>*ST围海</t>
+          <t>ST同洲</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002586</t>
+          <t>002052</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1187,12 +4366,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>*ST新海</t>
+          <t>*ST红相</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002089</t>
+          <t>300427</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1202,87 +4381,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>*ST银河</t>
+          <t>*ST金一</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000806</t>
+          <t>002721</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ST金鸿</t>
+          <t>ST天龙</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000669</t>
+          <t>300029</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>*ST紫鑫</t>
+          <t>*ST越博</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002118</t>
+          <t>300742</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ST阳光城</t>
+          <t>*ST慧辰</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000671</t>
+          <t>688500</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ST鼎龙</t>
+          <t>ST沪科</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002502</t>
+          <t>600608</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>*ST 正邦</t>
+          <t>S*ST佳通</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002157</t>
+          <t>600182</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1292,12 +4471,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>*ST美谷</t>
+          <t>*ST三盛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000615</t>
+          <t>300282</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1307,12 +4486,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ST实华</t>
+          <t>ST通葡</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000637</t>
+          <t>600365</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1322,12 +4501,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ST工智</t>
+          <t>ST天圣</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000584</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1337,12 +4516,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ST恒久</t>
+          <t>*ST园城</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002808</t>
+          <t>600766</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1352,27 +4531,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ST华铁</t>
+          <t>*ST文化</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>300089</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>*ST中期</t>
+          <t>*ST奇信</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000996</t>
+          <t>002781</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1382,27 +4561,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>*ST搜特</t>
+          <t>*ST必康</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002503</t>
+          <t>002411</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>*ST新联</t>
+          <t>ST中嘉</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000620</t>
+          <t>000889</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1412,16 +4591,736 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>*ST银河</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000806</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ST金鸿</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000669</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>*ST泛海</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000046</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ST万林</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>603117</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ST步森</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002569</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ST有棵树</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>300209</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ST金运</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>300220</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>*ST雪发</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>*ST全筑</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>603030</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ST海越</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>600387</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ST易购</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ST路通</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>300555</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>*ST方科</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>600601</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>*ST华仪</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>600290</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ST实华</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000637</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>*ST围海</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002586</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>*ST 正邦</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>*ST中天</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>000540</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>*ST爱迪</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002740</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ST南卫</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>603880</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>*ST宋都</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>600077</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ST富润</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>600070</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ST贵人</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>603555</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>*ST中期</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>*ST柏龙</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ST花王</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>603007</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ST通脉</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>603559</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ST宇顺</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ST鹏博士</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>600804</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>*ST新海</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002089</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ST工智</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ST恒久</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ST美讯</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>600898</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ST鼎龙</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002502</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>*ST美谷</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000615</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>*ST新纺</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002087</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ST粤泰</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>600393</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
